--- a/data/itinerary_ratings.xlsx
+++ b/data/itinerary_ratings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -411,6 +411,12 @@
       </c>
       <c r="C1" t="str">
         <v>67e03695cbbf18fc4cf04ee7</v>
+      </c>
+      <c r="D1" t="str">
+        <v>User3 Rating</v>
+      </c>
+      <c r="E1" t="str">
+        <v>67ed5d43af41f6bfc2fb638f</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
@@ -433,6 +439,9 @@
       <c r="C2">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str" xml:space="preserve">
@@ -449,10 +458,44 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str" xml:space="preserve">
+        <v xml:space="preserve">3-Day Trip
+- Day 1: North Goa Exploration
+  - Visit Aguada Fort, Baga Beach, Candolim, Calangute, Arambol, Museum of Goa, and Chapora Fort.
+  - In the evening, enjoy the nightlife at clubs and beaches.
+  - Accommodation: Average hotel charges Rs 2000 per night for two adults.
+  - Estimated Budget: Around Rs 25,000 for a couple, including accommodation, meals, and transportation. Excludes travel to Goa.
+  - Travel Options: Rent a scooty for Rs 350 per day or a car for Rs 800-1,000 per day. Consider a package from Fluto Holidays for convenience .
+- Day 2: Panaji and Surroundings
+  - Visit Reis Magos Fort, Basilica of Bom Jesus, Immaculate Conception Church, Miramar Beach, and Dona Paula.
+  - Optional dolphin trip in the afternoon.
+  - Evening visit to a casino.
+  - Accommodation: Continue with the same hotel.
+  - Estimated Budget: Additional Rs 6,000-7,000 per person for entry fees, casinos, and parking .
+- Day 3: South Goa Relaxation
+  - Visit Indian Naval Aviation Museum, Majorda Beach, Colva Beach, and Cabo De Rama Fort.
+  - Evening relaxation with a massage or fish spa.
+  - Accommodation: Continue with the same hotel.
+  - Estimated Budget: Included in the overall budget.</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>